--- a/Reconfig-Experiments/Results/ReconfigurationExperiment1.xlsx
+++ b/Reconfig-Experiments/Results/ReconfigurationExperiment1.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20935927\Documents\Masters-Case-Study\Evaluation-Projects\Reconfiguration Experiments\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20935927\Documents\Masters-Case-Study\Reconfig-Experiments\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CD4B2E-84C5-4169-B1C0-97A1F47328DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559690AF-AD29-497A-B17E-A2AAA3C516D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>Description:</t>
   </si>
@@ -36,9 +45,6 @@
     <t>Metrics</t>
   </si>
   <si>
-    <t>Time Taken</t>
-  </si>
-  <si>
     <t>Lines of code added</t>
   </si>
   <si>
@@ -55,6 +61,54 @@
   </si>
   <si>
     <t>Amount of Code reused</t>
+  </si>
+  <si>
+    <t>Scripts</t>
+  </si>
+  <si>
+    <t>Start Line Amount</t>
+  </si>
+  <si>
+    <t>End Line Amount</t>
+  </si>
+  <si>
+    <t>New lines added</t>
+  </si>
+  <si>
+    <t>Building.cs</t>
+  </si>
+  <si>
+    <t>EnergyMeterData.cs</t>
+  </si>
+  <si>
+    <t>EnergyMeterModel.cs</t>
+  </si>
+  <si>
+    <t>BuildingDBDataAccess.cs</t>
+  </si>
+  <si>
+    <t>Campus.cs</t>
+  </si>
+  <si>
+    <t>Precinct.cs</t>
+  </si>
+  <si>
+    <t>MenuManager.cs</t>
+  </si>
+  <si>
+    <t>Time Taken (hrs:min)</t>
+  </si>
+  <si>
+    <t>Total Lines added</t>
+  </si>
+  <si>
+    <t>Adding max energy usage service to conv (gives the max energy usage reading for a given day or current day)</t>
+  </si>
+  <si>
+    <t>InformationHandler.cs</t>
+  </si>
+  <si>
+    <t>EnergyAPIScript.cs</t>
   </si>
 </sst>
 </file>
@@ -70,12 +124,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,8 +150,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,59 +447,344 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <v>697</v>
+      </c>
+      <c r="N2">
+        <v>881</v>
+      </c>
+      <c r="O2">
+        <f>N2-M2</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3">
+        <v>27</v>
+      </c>
+      <c r="N3">
+        <v>29</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="0">N3-M3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>33</v>
+      </c>
+      <c r="N4">
+        <v>35</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <v>123</v>
+      </c>
+      <c r="N5">
+        <v>138</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6">
+        <v>636</v>
+      </c>
+      <c r="N6">
+        <v>819</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <f>O10</f>
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <f>SUM(O2:O9)</f>
+        <v>689</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f>SUM(B7:E7)</f>
+        <v>698</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7">
+        <v>1023</v>
+      </c>
+      <c r="N7">
+        <v>1310</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8">
+        <v>68</v>
+      </c>
+      <c r="N8">
+        <v>76</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <v>68</v>
+      </c>
+      <c r="N9">
+        <v>76</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10">
+        <v>413</v>
+      </c>
+      <c r="N10">
+        <v>422</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <f>SUM(O2:O10)</f>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16">
+        <v>694</v>
+      </c>
+      <c r="N16">
+        <v>953</v>
+      </c>
+      <c r="O16">
+        <f>N16-M16</f>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17">
+        <v>170</v>
+      </c>
+      <c r="N17">
+        <v>308</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ref="O17:O18" si="1">N17-M17</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18">
+        <v>709</v>
+      </c>
+      <c r="N18">
+        <v>718</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <f>SUM(O16:O18)</f>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <f>O19</f>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E23" t="s">
         <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
